--- a/public/data/lime/lime_table_sudan.xlsx
+++ b/public/data/lime/lime_table_sudan.xlsx
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.55</v>
+        <v>0.35</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4282,16 +4282,16 @@
         <v>158</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07</v>
+        <v>0.52</v>
       </c>
       <c r="E62" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4300,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4770,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
